--- a/Campeonato_Paulista.xlsx
+++ b/Campeonato_Paulista.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\du_vn\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\du_vn\Downloads\base_dados_exerc_modelagem_01-main\base_dados_exerc_modelagem_01-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89A99C23-AB49-4CC9-91FD-C7B3790460D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20AE632-EBEE-40E9-A05E-07E534B5B029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{F22D0191-2D3F-441B-AD88-23BA7EEB9C2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F22D0191-2D3F-441B-AD88-23BA7EEB9C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Grupo A" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
   <si>
     <t>Classificação</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Jenison</t>
+  </si>
+  <si>
+    <t>Chutes a Gol</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -192,12 +198,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619F1E2D-8B3D-4C21-8DF8-737178BDA100}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,6 +663,98 @@
         <v>3</v>
       </c>
       <c r="G5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
         <v>6</v>
       </c>
     </row>
@@ -800,10 +899,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97567A8-CAE8-4B2A-87BD-2B6905FB52AE}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -835,95 +934,150 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>11</v>
       </c>
       <c r="E3" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
         <v>17</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
         <v>14</v>
       </c>
-      <c r="D4" s="1">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="1">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>13</v>
       </c>
-      <c r="D5" s="1">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="D6" s="1">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1066,19 +1220,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D15E18-E69B-43DB-A989-0361F97B60D8}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.6328125" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1091,104 +1246,136 @@
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Campeonato_Paulista.xlsx
+++ b/Campeonato_Paulista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\du_vn\Downloads\base_dados_exerc_modelagem_01-main\base_dados_exerc_modelagem_01-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20AE632-EBEE-40E9-A05E-07E534B5B029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19889C58-9A3A-4287-A4E2-007649B8EE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F22D0191-2D3F-441B-AD88-23BA7EEB9C2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{F22D0191-2D3F-441B-AD88-23BA7EEB9C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Grupo A" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
   <si>
     <t>Classificação</t>
   </si>
@@ -198,13 +198,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619F1E2D-8B3D-4C21-8DF8-737178BDA100}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -1220,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D15E18-E69B-43DB-A989-0361F97B60D8}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1231,9 +1230,10 @@
     <col min="2" max="2" width="12.6328125" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" customWidth="1"/>
     <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1246,18 +1246,22 @@
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1271,8 +1275,11 @@
         <v>7</v>
       </c>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1286,8 +1293,11 @@
         <v>7</v>
       </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1301,8 +1311,11 @@
         <v>6</v>
       </c>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1316,8 +1329,11 @@
         <v>6</v>
       </c>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1331,8 +1347,11 @@
         <v>5</v>
       </c>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1346,8 +1365,11 @@
         <v>5</v>
       </c>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1361,8 +1383,11 @@
         <v>4</v>
       </c>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1376,6 +1401,9 @@
         <v>3</v>
       </c>
       <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
